--- a/src/main/webapp/resources/template/요청양식.xlsx
+++ b/src/main/webapp/resources/template/요청양식.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungbae Kim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B4CC0D-CE80-4217-8420-010408584C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7920"/>
+    <workbookView xWindow="4485" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카테고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 사유</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -45,15 +42,11 @@
     <t>수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>부서 자산 y/n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,21 +369,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="36.08203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="5" max="5" width="36.125" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -398,16 +391,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
